--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/4U3U3I3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/4U3U3I3I3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E8D84D-347F-4255-A061-47AD1BC35B10}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42300A42-D445-4838-80A3-8C932E99059D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -452,8 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -781,58 +780,58 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>128</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6">
         <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7">
         <v>-1</v>
       </c>
     </row>
@@ -846,8 +845,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B21"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +995,7 @@
         <v>100</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1004,7 +1003,7 @@
         <v>101</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1012,7 +1011,7 @@
         <v>102</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1036,7 +1035,7 @@
         <v>105</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1044,7 +1043,7 @@
         <v>106</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1052,7 +1051,7 @@
         <v>107</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1060,7 +1059,7 @@
         <v>108</v>
       </c>
       <c r="B26">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1084,7 +1083,7 @@
         <v>111</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1193,8 +1192,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,7 +1545,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F9" t="s">
         <v>64</v>
@@ -1593,7 +1592,7 @@
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
         <v>64</v>
@@ -1748,7 +1747,7 @@
         <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="F14" t="s">
         <v>64</v>
@@ -1783,7 +1782,7 @@
         <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
@@ -1818,7 +1817,7 @@
         <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
         <v>13</v>
@@ -1853,7 +1852,7 @@
         <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
         <v>13</v>
@@ -1996,7 +1995,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2074,7 +2073,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2088,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2102,7 +2101,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2137,8 +2136,8 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
-        <v>8</v>
+      <c r="B10">
+        <v>14</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2151,8 +2150,8 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>9</v>
+      <c r="B11">
+        <v>15</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2165,8 +2164,8 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>13</v>
+      <c r="B12">
+        <v>16</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -2179,7 +2178,7 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13">
         <v>18</v>
       </c>
       <c r="C13">

--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/4U3U3I3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/4U3U3I3I3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42300A42-D445-4838-80A3-8C932E99059D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8ECC3B-5D9B-471B-A209-08C5B36D71EC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -773,8 +773,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,8 +845,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1193,7 @@
   <dimension ref="A1:AB23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,8 +1994,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
